--- a/v2/OSTP_v2_summary.xlsx
+++ b/v2/OSTP_v2_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eschares\Desktop\eschares\python_work_local\OSTP_impact\OSTP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD603B98-AF8F-452B-92E3-85F7B6F4B2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD60239-06AA-453A-B0CF-FCA0D907E153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91729FA4-9109-4A28-9AEA-D4DB5A191B41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91729FA4-9109-4A28-9AEA-D4DB5A191B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -75,15 +75,31 @@
   </si>
   <si>
     <t>UKRI % of WW</t>
+  </si>
+  <si>
+    <t>US YoY ratio</t>
+  </si>
+  <si>
+    <t>US FF YoY ratio</t>
+  </si>
+  <si>
+    <t>WW YoY ratio</t>
+  </si>
+  <si>
+    <t>cS YoY ratio</t>
+  </si>
+  <si>
+    <t>UKRI YoY ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -131,14 +147,29 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -455,389 +486,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD97C48F-7498-4FD8-8F4B-31B6801CE8F8}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2022</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>271799</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>763949</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f>B3/C3</f>
         <v>0.35578160322220465</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>6490984</v>
       </c>
-      <c r="F3" s="4">
-        <f>C3/E3</f>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F10" si="0">C3/E3</f>
         <v>0.11769386582989574</v>
       </c>
-      <c r="G3" s="4">
-        <f>B3/E3</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G10" si="1">B3/E3</f>
         <v>4.1873312274379355E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>231231</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f>H3/E3</f>
         <v>3.5623412413279709E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>50775</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <f>J3/E3</f>
         <v>7.8223887164103317E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2021</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>296225</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>805831</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D10" si="0">B4/C4</f>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D10" si="2">B4/C4</f>
         <v>0.3676018917117857</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>6359693</v>
       </c>
-      <c r="F4" s="4">
-        <f>C4/E4</f>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
         <v>0.12670910372560437</v>
       </c>
-      <c r="G4" s="4">
-        <f>B4/E4</f>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
         <v>4.6578506226637041E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>246244</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I10" si="1">H4/E4</f>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I10" si="3">H4/E4</f>
         <v>3.8719479069194061E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>56735</v>
       </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K10" si="2">J4/E4</f>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K10" si="4">J4/E4</f>
         <v>8.9210281062309139E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2020</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>294911</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>817697</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36066048915429555</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6232979</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0.36066048915429555</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6232979</v>
-      </c>
-      <c r="F5" s="4">
-        <f>C5/E5</f>
         <v>0.13118879431488539</v>
       </c>
-      <c r="G5" s="4">
-        <f>B5/E5</f>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
         <v>4.7314614729168827E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>231003</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7061411565801845E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>55069</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="4"/>
+        <v>8.8351011610980877E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="3">
+        <v>279772</v>
+      </c>
+      <c r="C6" s="3">
+        <v>766263</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36511223953133587</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5599105</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13685455086125373</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>3.7061411565801845E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>55069</v>
-      </c>
-      <c r="K5" s="4">
+        <v>4.996727155500745E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>209174</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7358470684153988E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>52219</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>9.3263119730742673E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="3">
+        <v>275654</v>
+      </c>
+      <c r="C7" s="3">
+        <v>753189</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="2"/>
-        <v>8.8351011610980877E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="1">
-        <v>279772</v>
-      </c>
-      <c r="C6" s="1">
-        <v>766263</v>
-      </c>
-      <c r="D6" s="4">
+        <v>0.36598250903823609</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5220375</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0.36511223953133587</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5599105</v>
-      </c>
-      <c r="F6" s="4">
-        <f>C6/E6</f>
-        <v>0.13685455086125373</v>
-      </c>
-      <c r="G6" s="4">
-        <f>B6/E6</f>
-        <v>4.996727155500745E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>209174</v>
-      </c>
-      <c r="I6" s="4">
+        <v>0.1442787156095108</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>3.7358470684153988E-2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>52219</v>
-      </c>
-      <c r="K6" s="4">
+        <v>5.2803486339582886E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>199819</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>3.8276752149031437E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>50992</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="4"/>
+        <v>9.7678806599142774E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>267650</v>
+      </c>
+      <c r="C8" s="3">
+        <v>727720</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="2"/>
-        <v>9.3263119730742673E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="1">
-        <v>275654</v>
-      </c>
-      <c r="C7" s="1">
-        <v>753189</v>
-      </c>
-      <c r="D7" s="4">
+        <v>0.36779255757709006</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4919957</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0.36598250903823609</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5220375</v>
-      </c>
-      <c r="F7" s="4">
-        <f>C7/E7</f>
-        <v>0.1442787156095108</v>
-      </c>
-      <c r="G7" s="4">
-        <f>B7/E7</f>
-        <v>5.2803486339582886E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>199819</v>
-      </c>
-      <c r="I7" s="4">
+        <v>0.14791186183131275</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>3.8276752149031437E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>50992</v>
-      </c>
-      <c r="K7" s="4">
+        <v>5.4400881958927692E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>189188</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>3.8453181603009944E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>49706</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0102933826454174E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="3">
+        <v>264344</v>
+      </c>
+      <c r="C9" s="3">
+        <v>707309</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="2"/>
-        <v>9.7678806599142774E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="1">
-        <v>267650</v>
-      </c>
-      <c r="C8" s="1">
-        <v>727720</v>
-      </c>
-      <c r="D8" s="4">
+        <v>0.37373198983753919</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4487713</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>0.36779255757709006</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4919957</v>
-      </c>
-      <c r="F8" s="4">
-        <f>C8/E8</f>
-        <v>0.14791186183131275</v>
-      </c>
-      <c r="G8" s="4">
-        <f>B8/E8</f>
-        <v>5.4400881958927692E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>189188</v>
-      </c>
-      <c r="I8" s="4">
+        <v>0.15761012346377765</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8453181603009944E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>49706</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="2"/>
-        <v>1.0102933826454174E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="1">
-        <v>264344</v>
-      </c>
-      <c r="C9" s="1">
-        <v>707309</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.37373198983753919</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4487713</v>
-      </c>
-      <c r="F9" s="4">
-        <f>C9/E9</f>
-        <v>0.15761012346377765</v>
-      </c>
-      <c r="G9" s="4">
-        <f>B9/E9</f>
         <v>5.8903945060657846E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>181818</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
         <v>4.0514622927090037E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>48520</v>
       </c>
-      <c r="K9" s="4">
-        <f t="shared" si="2"/>
+      <c r="K9" s="5">
+        <f t="shared" si="4"/>
         <v>1.0811743086066333E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <f>SUM(B3:B9)</f>
         <v>1950355</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f>SUM(C3:C9)</f>
         <v>5341958</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
+      <c r="D10" s="5">
+        <f t="shared" si="2"/>
         <v>0.36510114830554641</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <f>SUM(E3:E9)</f>
         <v>39310806</v>
       </c>
-      <c r="F10" s="4">
-        <f>C10/E10</f>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
         <v>0.13589031982707248</v>
       </c>
-      <c r="G10" s="4">
-        <f>B10/E10</f>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
         <v>4.9613711812472122E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <f>SUM(H3:H9)</f>
         <v>1488477</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="1"/>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
         <v>3.7864321581195765E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <f>SUM(J3:J9)</f>
         <v>364016</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" si="2"/>
+      <c r="K10" s="5">
+        <f t="shared" si="4"/>
         <v>9.2599475065456554E-3</v>
       </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="3">
+        <v>271799</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:C18" si="5">B14/B15</f>
+        <v>0.91754240864207948</v>
+      </c>
+      <c r="D14" s="3">
+        <v>763949</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E18" si="6">D14/D15</f>
+        <v>0.94802632313723345</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6490984</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:G18" si="7">F14/F15</f>
+        <v>1.0206442355000469</v>
+      </c>
+      <c r="H14" s="3">
+        <v>231231</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" ref="I14:I18" si="8">H14/H15</f>
+        <v>0.93903201702376504</v>
+      </c>
+      <c r="J14" s="3">
+        <v>50775</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14:K18" si="9">J14/J15</f>
+        <v>0.89495020710319906</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="3">
+        <v>296225</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0044555815144229</v>
+      </c>
+      <c r="D15" s="3">
+        <v>805831</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="6"/>
+        <v>0.98548851224842449</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6359693</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0203296048326169</v>
+      </c>
+      <c r="H15" s="3">
+        <v>246244</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0659774981277299</v>
+      </c>
+      <c r="J15" s="3">
+        <v>56735</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="9"/>
+        <v>1.0302529553832465</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="3">
+        <v>294911</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0541119197060465</v>
+      </c>
+      <c r="D16" s="3">
+        <v>817697</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="6"/>
+        <v>1.067123167894052</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6232979</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1132098790788885</v>
+      </c>
+      <c r="H16" s="3">
+        <v>231003</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1043580942182107</v>
+      </c>
+      <c r="J16" s="3">
+        <v>55069</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="9"/>
+        <v>1.0545778356536892</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B17" s="3">
+        <v>279772</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0149390177541411</v>
+      </c>
+      <c r="D17" s="3">
+        <v>766263</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0173581929635191</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5599105</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0725484280343844</v>
+      </c>
+      <c r="H17" s="3">
+        <v>209174</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0468173697195962</v>
+      </c>
+      <c r="J17" s="3">
+        <v>52219</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="9"/>
+        <v>1.0240625980545968</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="3">
+        <v>275654</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0299047263216887</v>
+      </c>
+      <c r="D18" s="3">
+        <v>753189</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0349983510141263</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5220375</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0610611027698007</v>
+      </c>
+      <c r="H18" s="3">
+        <v>199819</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0561927817831998</v>
+      </c>
+      <c r="J18" s="3">
+        <v>50992</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="9"/>
+        <v>1.0258721281133063</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="3">
+        <v>267650</v>
+      </c>
+      <c r="C19" s="4">
+        <f>B19/B20</f>
+        <v>1.0125064310141332</v>
+      </c>
+      <c r="D19" s="3">
+        <v>727720</v>
+      </c>
+      <c r="E19" s="4">
+        <f>D19/D20</f>
+        <v>1.0288572604052826</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4919957</v>
+      </c>
+      <c r="G19" s="4">
+        <f>F19/F20</f>
+        <v>1.0963172110159451</v>
+      </c>
+      <c r="H19" s="3">
+        <v>189188</v>
+      </c>
+      <c r="I19" s="4">
+        <f>H19/H20</f>
+        <v>1.0405350405350406</v>
+      </c>
+      <c r="J19" s="3">
+        <v>49706</v>
+      </c>
+      <c r="K19" s="4">
+        <f>J19/J20</f>
+        <v>1.0244435284418796</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="3">
+        <v>264344</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
+        <v>707309</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3">
+        <v>4487713</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3">
+        <v>181818</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3">
+        <v>48520</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
